--- a/Crucigrama - BD.xlsx
+++ b/Crucigrama - BD.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gehealthcare-my.sharepoint.com/personal/250024230_gehealthcare_com/Documents/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61AD1489-FB16-459A-964F-4CDF61877C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="8_{61AD1489-FB16-459A-964F-4CDF61877C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B96A9D42-46A6-44F9-B3BB-CA30499B46E6}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{4014BBB3-10F6-41BB-8658-F14FE8942FAC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{4014BBB3-10F6-41BB-8658-F14FE8942FAC}"/>
   </bookViews>
   <sheets>
-    <sheet name="CONTESTADO" sheetId="1" r:id="rId1"/>
-    <sheet name="SIN CONTESTAR" sheetId="2" r:id="rId2"/>
+    <sheet name="SIN CONTESTAR" sheetId="2" r:id="rId1"/>
+    <sheet name="CONTESTADO" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="22">
   <si>
     <t>M</t>
   </si>
@@ -100,6 +100,9 @@
   </si>
   <si>
     <t>G</t>
+  </si>
+  <si>
+    <t>|</t>
   </si>
 </sst>
 </file>
@@ -319,6 +322,2277 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BABDFE0E-3F69-47D0-BC86-09628B10C15E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="688784" y="174489"/>
+          <a:ext cx="289034" cy="54111"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="800" b="1"/>
+            <a:t>14</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>65689</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>190910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>37223</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>182153</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE161114-952C-4884-AD60-95F4769DE1F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="827689" y="2248310"/>
+          <a:ext cx="225534" cy="219843"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="800" b="1"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>185246</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>51540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>220280</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>42783</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9A6132C-B8D5-4BA0-B96E-421CD48CC0DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1963246" y="2108940"/>
+          <a:ext cx="289034" cy="219843"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="800" b="1"/>
+            <a:t>7</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>35610</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>184917</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>70644</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>176160</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B537CFE-8323-4043-9316-6D50775D344E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1559610" y="1785117"/>
+          <a:ext cx="289034" cy="219843"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="800" b="1"/>
+            <a:t>15</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>164197</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>42398</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>199231</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>33641</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99FBE58D-ACAB-4579-9E88-19A3CD349F58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2450197" y="728198"/>
+          <a:ext cx="289034" cy="219843"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="800" b="1"/>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>70262</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>198083</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>105296</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>189326</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98EDF37A-F2D5-4BB1-8780-82FC8277E198}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2356262" y="426683"/>
+          <a:ext cx="289034" cy="219843"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="800" b="1"/>
+            <a:t>9</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>193649</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>41603</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>228683</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>32846</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42A20627-220D-474E-968D-6E4094AF29EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2987649" y="1184603"/>
+          <a:ext cx="289034" cy="219843"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="800" b="1"/>
+            <a:t>6</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>188310</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>43602</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>161431</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>34845</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53949167-5863-408F-85FF-B12A25EA5121}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3998310" y="729402"/>
+          <a:ext cx="227121" cy="219843"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="800" b="1"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>196822</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>31230</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>231856</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>22473</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6264129A-B0CC-4D18-8205-EB1C7991D4BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4514822" y="1631430"/>
+          <a:ext cx="289034" cy="219843"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="800" b="1"/>
+            <a:t>8</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>178977</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>59505</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>214011</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>50747</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextBox 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FE844F9-ED8E-4019-B503-67C38B7ED7B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3480977" y="2802705"/>
+          <a:ext cx="289034" cy="219842"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="800" b="1"/>
+            <a:t>11</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>23676</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>194974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>58710</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>186217</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="TextBox 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F75F7BCB-B393-4743-93F1-D39ABEAAF441}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2563676" y="3623974"/>
+          <a:ext cx="289034" cy="219843"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="800" b="1"/>
+            <a:t>10</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>22209</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>199013</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57243</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>190256</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="TextBox 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD5E8798-1542-4C19-B3BF-840D0E5176D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2308209" y="4085213"/>
+          <a:ext cx="289034" cy="219843"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="800" b="1"/>
+            <a:t>12</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>183931</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>52552</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>218965</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>43793</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="TextBox 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80C1ED15-7B34-420C-BBF6-81CDA75E7D24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3485931" y="281152"/>
+          <a:ext cx="289034" cy="219841"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="800" b="1"/>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>21897</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>197069</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>56931</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>188311</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="TextBox 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31617BEF-188F-42AB-A272-ED2E855FE56F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21897" y="882869"/>
+          <a:ext cx="289034" cy="219842"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="800" b="1"/>
+            <a:t>13</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>172791</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>56603</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>207825</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47846</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="TextBox 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EAA6391-03F9-428C-B89E-7BD8F6951842}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1188791" y="513803"/>
+          <a:ext cx="289034" cy="219843"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="800" b="1"/>
+            <a:t>5</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>172792</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47843</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>207826</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>39086</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="TextBox 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F126C353-A9D1-482D-8F25-41BFD3C6BE7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="680792" y="47843"/>
+          <a:ext cx="289034" cy="219843"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="800" b="1"/>
+            <a:t>14</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="TextBox 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDF3AD5A-609B-1577-D27A-D690CB4FE2EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5321300" y="254000"/>
+          <a:ext cx="1949450" cy="869950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Es el modelo que utiliza símbolos para representar los elementos del proceso como: entidades, relaciones, atributos</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="TextBox 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A778E71F-1577-4487-803C-602E27CF120F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7404100" y="254000"/>
+          <a:ext cx="1949450" cy="1130300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2-  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Es un proceso que consiste en designar y aplicar una serie de reglas a las relaciones obtenidas tras el paso del modelo entidad relacion al modelo relacional</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="TextBox 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1975B28-C44F-41EE-ADB0-CF64148D5370}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9480550" y="234950"/>
+          <a:ext cx="1949450" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>Es</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t> una h</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" b="0" i="0">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>erramienta para recopilar y organizar información, pueden almacenar información sobre personas, productos, pedidos u otras cosas</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="TextBox 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D035338-5714-4801-9C1F-BC3D9EB45EA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5340350" y="1460500"/>
+          <a:ext cx="1949450" cy="869950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Es el nivel intermedio</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> de la arquitectura de las bases d datos, aquí se identifican las tablas de la BD y sus relaciones</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="TextBox 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C56D5AA8-F97A-4174-93F4-07E49599AB2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7410450" y="1460500"/>
+          <a:ext cx="1949450" cy="698500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>5-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Es el modelo que se representa el proceso a través de tablas y relaciones</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="TextBox 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCDE1AD4-6EC5-4463-B24C-8FF4CB904CD8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9486900" y="1466850"/>
+          <a:ext cx="1949450" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>6-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Esta forma normal se encarga de realizar las relaciones </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="TextBox 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4911632B-165C-4551-90F2-0534452EF4D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5327650" y="2451100"/>
+          <a:ext cx="1949450" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>7-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> Tipo de BD que permitan transacciones</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="TextBox 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0EB0AC5-5469-4AF2-BC58-DEB735701571}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7404100" y="2438400"/>
+          <a:ext cx="1949450" cy="984250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>8-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> Tener mayor independencia, mayor disponibilidad, mayor seguridad, menor redundancia, etc. Son ___________</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> de las bases de datos</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>69850</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="TextBox 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECFD9D87-5B0E-4ECD-AEBF-518F5668EC7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9467850" y="2438400"/>
+          <a:ext cx="1949450" cy="539750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>9-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> Es el simbolo que se utiliza para unir tablas</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> o entidades</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="TextBox 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{949C2890-CBE3-472C-B6DF-85368A73A2FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5365750" y="3530600"/>
+          <a:ext cx="1949450" cy="977900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>10-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> A este nivel también</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> se le conoce como nivel físico y está dirigido a la forma y lugar que se almacenan los datos de la base de datos</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="TextBox 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42E4858D-88A0-4F6C-95E2-FC92ED4009F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7404100" y="3536950"/>
+          <a:ext cx="1949450" cy="831850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>11-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> A este nivel también se le conoce como nivel de visión,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> es el relacionado a la vista del usuario final</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="TextBox 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93B9ACBA-91DB-40CA-B659-416DEA0A1A4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9474200" y="3543300"/>
+          <a:ext cx="1949450" cy="1009650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>12- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>La _______________ forma normal se refiere a no repetir los mismos valores en las columnas, si</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> es necesario descomponer la tabla en otras</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="TextBox 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A858A7A6-A278-4521-8A7B-97C5CDFA402F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5372100" y="4667250"/>
+          <a:ext cx="1949450" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>13-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> Es la ____________ forma normal,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> la que indica que: no repetir campos en las tablas (atributos átomicos)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="TextBox 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A8DE55A-F33F-45E8-82D3-9D5BBBBC2376}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7416800" y="4667250"/>
+          <a:ext cx="1949450" cy="825500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>14- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Es el símbolo</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> que representa el elemento, cosa, persona, etc. Que tiene características (atributos)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="TextBox 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E58B957D-AE60-4B88-B3AD-BC755DD3543A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9455150" y="4667250"/>
+          <a:ext cx="1949450" cy="698500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>15-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Son programas que permiten diseñar, crear y manipular las bases de datos</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>180784</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>174489</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>215818</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="TextBox 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
@@ -1292,1035 +3566,6 @@
         <a:xfrm>
           <a:off x="680792" y="47843"/>
           <a:ext cx="289034" cy="218967"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="800" b="1"/>
-            <a:t>14</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>180784</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>174489</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>215818</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BABDFE0E-3F69-47D0-BC86-09628B10C15E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="688784" y="174489"/>
-          <a:ext cx="289034" cy="54111"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="800" b="1"/>
-            <a:t>14</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>65689</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>190910</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>37223</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>182153</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="TextBox 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE161114-952C-4884-AD60-95F4769DE1F4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="827689" y="2248310"/>
-          <a:ext cx="225534" cy="219843"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="800" b="1"/>
-            <a:t>1</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>185246</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>51540</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>220280</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>42783</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="TextBox 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9A6132C-B8D5-4BA0-B96E-421CD48CC0DE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1963246" y="2108940"/>
-          <a:ext cx="289034" cy="219843"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="800" b="1"/>
-            <a:t>7</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>35610</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>184917</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>70644</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>176160</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="TextBox 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B537CFE-8323-4043-9316-6D50775D344E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1559610" y="1785117"/>
-          <a:ext cx="289034" cy="219843"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="800" b="1"/>
-            <a:t>15</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>164197</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>42398</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>199231</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>33641</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="TextBox 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99FBE58D-ACAB-4579-9E88-19A3CD349F58}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2450197" y="728198"/>
-          <a:ext cx="289034" cy="219843"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="800" b="1"/>
-            <a:t>3</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>70262</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>198083</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>105296</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>189326</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="TextBox 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98EDF37A-F2D5-4BB1-8780-82FC8277E198}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2356262" y="426683"/>
-          <a:ext cx="289034" cy="219843"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="800" b="1"/>
-            <a:t>9</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>193649</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>41603</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>228683</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>32846</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="TextBox 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42A20627-220D-474E-968D-6E4094AF29EB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2987649" y="1184603"/>
-          <a:ext cx="289034" cy="219843"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="800" b="1"/>
-            <a:t>6</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>188310</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>43602</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>161431</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>34845</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="TextBox 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53949167-5863-408F-85FF-B12A25EA5121}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3998310" y="729402"/>
-          <a:ext cx="227121" cy="219843"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="800" b="1"/>
-            <a:t>2</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>196822</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>31230</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>231856</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>22473</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="TextBox 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6264129A-B0CC-4D18-8205-EB1C7991D4BA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4514822" y="1631430"/>
-          <a:ext cx="289034" cy="219843"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="800" b="1"/>
-            <a:t>8</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>178977</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>59505</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>214011</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>50747</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="TextBox 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FE844F9-ED8E-4019-B503-67C38B7ED7B8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3480977" y="2802705"/>
-          <a:ext cx="289034" cy="219842"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="800" b="1"/>
-            <a:t>11</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>23676</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>194974</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>58710</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>186217</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="TextBox 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F75F7BCB-B393-4743-93F1-D39ABEAAF441}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2563676" y="3623974"/>
-          <a:ext cx="289034" cy="219843"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="800" b="1"/>
-            <a:t>10</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>22209</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>199013</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>57243</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>190256</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="TextBox 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD5E8798-1542-4C19-B3BF-840D0E5176D1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2308209" y="4085213"/>
-          <a:ext cx="289034" cy="219843"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="800" b="1"/>
-            <a:t>12</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>183931</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>52552</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>218965</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>43793</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="TextBox 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80C1ED15-7B34-420C-BBF6-81CDA75E7D24}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3485931" y="281152"/>
-          <a:ext cx="289034" cy="219841"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="800" b="1"/>
-            <a:t>4</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>21897</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>197069</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>56931</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>188311</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="TextBox 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31617BEF-188F-42AB-A272-ED2E855FE56F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21897" y="882869"/>
-          <a:ext cx="289034" cy="219842"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="800" b="1"/>
-            <a:t>13</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>172791</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>56603</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>207825</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>47846</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="TextBox 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EAA6391-03F9-428C-B89E-7BD8F6951842}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1188791" y="513803"/>
-          <a:ext cx="289034" cy="219843"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="800" b="1"/>
-            <a:t>5</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>172792</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>47843</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>207826</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>39086</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="TextBox 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F126C353-A9D1-482D-8F25-41BFD3C6BE7F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="680792" y="47843"/>
-          <a:ext cx="289034" cy="219843"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2676,11 +3921,441 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7975460D-B47A-43DE-A352-03C7746DFD20}">
+  <dimension ref="B1:V23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AJ27" sqref="AJ27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="3.6328125" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:22" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:22" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="2:22" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D8" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q8" s="9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F10" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="N11" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="P11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="R11" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="S11" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F12" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="S12" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="F13" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="M13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="S13" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I14" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="S14" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I15" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q15" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="S15" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I16" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q16" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="S16" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="9:18" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q17" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="R17" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="9:18" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I18" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="O18" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="9:18" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I19" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="N19" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="O19" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="P19" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="9:18" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I20" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="O20" s="13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="9:18" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I21" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="9:18" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I22" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="9:18" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4351405-8ADB-44B5-B1F5-B6E9E43A99ED}">
   <dimension ref="B1:S23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG11" sqref="AG11"/>
+      <selection activeCell="AE11" sqref="AE11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -3100,431 +4775,4 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7975460D-B47A-43DE-A352-03C7746DFD20}">
-  <dimension ref="B1:S23"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y9" sqref="Y9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.6328125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="16384" width="3.6328125" style="8"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:19" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D2" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:19" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="P3" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="R3" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="2:19" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D4" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:19" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="O5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q5" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:19" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D6" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q6" s="9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:19" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D7" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="O7" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q7" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="2:19" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D8" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="O8" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q8" s="9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:19" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F9" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="O9" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q9" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="S9" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="2:19" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F10" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="K10" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="M10" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="O10" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q10" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="S10" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="2:19" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="E11" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="L11" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="M11" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="N11" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="O11" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="P11" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q11" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="R11" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="S11" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="2:19" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F12" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="M12" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="O12" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q12" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="S12" s="9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="2:19" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F13" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="M13" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q13" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="S13" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="2:19" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I14" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="M14" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="O14" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q14" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="S14" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="2:19" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I15" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="M15" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="O15" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q15" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="S15" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="2:19" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I16" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="O16" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q16" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="S16" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="9:18" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I17" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="L17" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="M17" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="N17" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="O17" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="P17" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q17" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="R17" s="9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="9:18" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I18" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="O18" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="9:18" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I19" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="K19" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="L19" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="M19" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="N19" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="O19" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="P19" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q19" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="9:18" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I20" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="O20" s="13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="9:18" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I21" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="9:18" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="I22" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="9:18" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.35"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>